--- a/derivatives/VS_ROI_activation.xlsx
+++ b/derivatives/VS_ROI_activation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="15">
   <si>
     <t>P_C</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>sub</t>
+  </si>
+  <si>
+    <t>Contrast2</t>
+  </si>
+  <si>
+    <t>Outcome2</t>
   </si>
 </sst>
 </file>
@@ -406,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J271"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -427,23 +433,23 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" t="s">
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-5.0687475380000002</v>
       </c>
@@ -458,6 +464,9 @@
         <f>IF(COUNTIF(B2,"*C*"), "Computer",IF(COUNTIF(B2,"*S*"), "Stranger", "Friend"))</f>
         <v>Computer</v>
       </c>
+      <c r="E2">
+        <v>1001</v>
+      </c>
       <c r="F2">
         <v>-2.3100495799999998</v>
       </c>
@@ -472,11 +481,8 @@
         <f t="shared" ref="I2:I33" si="2">IF(COUNTIF(G2,"*C*"), "Computer",IF(COUNTIF(G2,"*S*"), "Stranger", "Friend"))</f>
         <v>Computer</v>
       </c>
-      <c r="J2">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-3.4184010150000002</v>
       </c>
@@ -491,6 +497,9 @@
         <f t="shared" ref="D3:D66" si="3">IF(COUNTIF(B3,"*C*"), "Computer",IF(COUNTIF(B3,"*S*"), "Stranger", "Friend"))</f>
         <v>Computer</v>
       </c>
+      <c r="E3">
+        <v>1006</v>
+      </c>
       <c r="F3">
         <v>-7.9360801460000001</v>
       </c>
@@ -505,11 +514,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J3">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-63.180437699999999</v>
       </c>
@@ -524,6 +530,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E4">
+        <v>1009</v>
+      </c>
       <c r="F4">
         <v>-27.82950748</v>
       </c>
@@ -538,11 +547,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J4">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>-43.342965939999999</v>
       </c>
@@ -557,6 +563,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E5">
+        <v>1010</v>
+      </c>
       <c r="F5">
         <v>5.7077765569999999</v>
       </c>
@@ -571,11 +580,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J5">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-5.738472024</v>
       </c>
@@ -590,6 +596,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E6">
+        <v>1011</v>
+      </c>
       <c r="F6">
         <v>42.914064539999998</v>
       </c>
@@ -604,11 +613,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J6">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8.7613408760000002</v>
       </c>
@@ -623,6 +629,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E7">
+        <v>1012</v>
+      </c>
       <c r="F7">
         <v>28.414540899999999</v>
       </c>
@@ -637,11 +646,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J7">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-96.485538149999996</v>
       </c>
@@ -656,6 +662,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E8">
+        <v>1013</v>
+      </c>
       <c r="F8">
         <v>7.3872828860000003E-2</v>
       </c>
@@ -670,11 +679,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J8">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-3.3361698099999999</v>
       </c>
@@ -689,6 +695,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E9">
+        <v>1015</v>
+      </c>
       <c r="F9">
         <v>3.594355653</v>
       </c>
@@ -703,11 +712,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J9">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13.747812740000001</v>
       </c>
@@ -722,6 +728,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E10">
+        <v>1016</v>
+      </c>
       <c r="F10">
         <v>-1.38382048</v>
       </c>
@@ -736,11 +745,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J10">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8.4796163809999996</v>
       </c>
@@ -755,6 +761,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E11">
+        <v>1019</v>
+      </c>
       <c r="F11">
         <v>10.490672480000001</v>
       </c>
@@ -769,11 +778,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J11">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3.4465078400000002</v>
       </c>
@@ -788,6 +794,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E12">
+        <v>1021</v>
+      </c>
       <c r="F12">
         <v>1.926012872</v>
       </c>
@@ -802,11 +811,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J12">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>-14.553007969999999</v>
       </c>
@@ -821,6 +827,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E13">
+        <v>1242</v>
+      </c>
       <c r="F13">
         <v>-16.94313747</v>
       </c>
@@ -835,11 +844,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J13">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9.5984973559999993</v>
       </c>
@@ -854,6 +860,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E14">
+        <v>1243</v>
+      </c>
       <c r="F14">
         <v>-4.4160520529999996</v>
       </c>
@@ -868,11 +877,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J14">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>-4.8184845479999998</v>
       </c>
@@ -887,6 +893,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E15">
+        <v>1244</v>
+      </c>
       <c r="F15">
         <v>-2.6876840550000001</v>
       </c>
@@ -901,11 +910,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J15">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>43.161280660000003</v>
       </c>
@@ -920,6 +926,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E16">
+        <v>1248</v>
+      </c>
       <c r="F16">
         <v>-15.59920024</v>
       </c>
@@ -934,11 +943,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J16">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.1870273770000002</v>
       </c>
@@ -953,6 +959,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E17">
+        <v>1249</v>
+      </c>
       <c r="F17">
         <v>-1.8693203629999999</v>
       </c>
@@ -967,11 +976,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J17">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>-31.586067249999999</v>
       </c>
@@ -986,6 +992,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E18">
+        <v>1251</v>
+      </c>
       <c r="F18">
         <v>-36.067894639999999</v>
       </c>
@@ -1000,11 +1009,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J18">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>-21.923763309999998</v>
       </c>
@@ -1019,6 +1025,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E19">
+        <v>1255</v>
+      </c>
       <c r="F19">
         <v>17.432511300000002</v>
       </c>
@@ -1033,11 +1042,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J19">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>-3.7662467290000001</v>
       </c>
@@ -1052,6 +1058,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E20">
+        <v>1276</v>
+      </c>
       <c r="F20">
         <v>-22.02539209</v>
       </c>
@@ -1066,11 +1075,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J20">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.89253432</v>
       </c>
@@ -1085,6 +1091,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E21">
+        <v>1282</v>
+      </c>
       <c r="F21">
         <v>14.31012524</v>
       </c>
@@ -1099,11 +1108,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J21">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>-20.603494390000002</v>
       </c>
@@ -1118,6 +1124,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E22">
+        <v>1286</v>
+      </c>
       <c r="F22">
         <v>2.106464688</v>
       </c>
@@ -1132,11 +1141,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J22">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2.1561401930000001</v>
       </c>
@@ -1151,6 +1157,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E23">
+        <v>1294</v>
+      </c>
       <c r="F23">
         <v>-8.9954237500000005</v>
       </c>
@@ -1165,11 +1174,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J23">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>-16.81287657</v>
       </c>
@@ -1184,6 +1190,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E24">
+        <v>1301</v>
+      </c>
       <c r="F24">
         <v>-19.041759450000001</v>
       </c>
@@ -1198,11 +1207,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J24">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>-26.149189710000002</v>
       </c>
@@ -1217,6 +1223,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E25">
+        <v>1302</v>
+      </c>
       <c r="F25">
         <v>9.2539366150000006</v>
       </c>
@@ -1231,11 +1240,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J25">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>-23.93318215</v>
       </c>
@@ -1250,6 +1256,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E26">
+        <v>1303</v>
+      </c>
       <c r="F26">
         <v>-9.7879056779999996</v>
       </c>
@@ -1264,11 +1273,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J26">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>-4.2468260969999996</v>
       </c>
@@ -1283,6 +1289,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E27">
+        <v>3116</v>
+      </c>
       <c r="F27">
         <v>7.8481184849999996</v>
       </c>
@@ -1297,11 +1306,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J27">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>-16.845939300000001</v>
       </c>
@@ -1316,6 +1322,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E28">
+        <v>3122</v>
+      </c>
       <c r="F28">
         <v>-20.573400580000001</v>
       </c>
@@ -1330,11 +1339,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J28">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>-22.75701578</v>
       </c>
@@ -1349,6 +1355,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E29">
+        <v>3125</v>
+      </c>
       <c r="F29">
         <v>-5.7228974890000002</v>
       </c>
@@ -1363,11 +1372,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J29">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.618249576</v>
       </c>
@@ -1382,6 +1388,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E30">
+        <v>3140</v>
+      </c>
       <c r="F30">
         <v>2.1955832420000001</v>
       </c>
@@ -1396,11 +1405,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J30">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>-42.948109989999999</v>
       </c>
@@ -1415,6 +1421,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E31">
+        <v>3143</v>
+      </c>
       <c r="F31">
         <v>-20.01496465</v>
       </c>
@@ -1429,11 +1438,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J31">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>-20.076589330000001</v>
       </c>
@@ -1448,6 +1454,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E32">
+        <v>3152</v>
+      </c>
       <c r="F32">
         <v>12.244420529999999</v>
       </c>
@@ -1462,11 +1471,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J32">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3.9968936849999998E-2</v>
       </c>
@@ -1481,6 +1487,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E33">
+        <v>3166</v>
+      </c>
       <c r="F33">
         <v>13.341883709999999</v>
       </c>
@@ -1495,11 +1504,8 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J33">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.81518428570000001</v>
       </c>
@@ -1514,6 +1520,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E34">
+        <v>3167</v>
+      </c>
       <c r="F34">
         <v>19.53015207</v>
       </c>
@@ -1528,11 +1537,8 @@
         <f t="shared" ref="I34:I65" si="5">IF(COUNTIF(G34,"*C*"), "Computer",IF(COUNTIF(G34,"*S*"), "Stranger", "Friend"))</f>
         <v>Computer</v>
       </c>
-      <c r="J34">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>-6.0643586889999996</v>
       </c>
@@ -1547,6 +1553,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E35">
+        <v>3170</v>
+      </c>
       <c r="F35">
         <v>-2.5572244290000001</v>
       </c>
@@ -1561,11 +1570,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J35">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>-18.116140000000001</v>
       </c>
@@ -1580,6 +1586,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E36">
+        <v>3173</v>
+      </c>
       <c r="F36">
         <v>-18.116458980000001</v>
       </c>
@@ -1594,11 +1603,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J36">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>-32.92633799</v>
       </c>
@@ -1613,6 +1619,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E37">
+        <v>3176</v>
+      </c>
       <c r="F37">
         <v>25.235741180000002</v>
       </c>
@@ -1627,11 +1636,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J37">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>-43.760736690000002</v>
       </c>
@@ -1646,6 +1652,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E38">
+        <v>3189</v>
+      </c>
       <c r="F38">
         <v>-21.666295080000001</v>
       </c>
@@ -1660,11 +1669,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J38">
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>-5.0104586619999996</v>
       </c>
@@ -1679,6 +1685,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E39">
+        <v>3190</v>
+      </c>
       <c r="F39">
         <v>19.658001540000001</v>
       </c>
@@ -1693,11 +1702,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J39">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>-1.442113808</v>
       </c>
@@ -1712,6 +1718,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E40">
+        <v>3199</v>
+      </c>
       <c r="F40">
         <v>33.069567309999996</v>
       </c>
@@ -1726,11 +1735,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J40">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>-7.4811956459999998</v>
       </c>
@@ -1745,6 +1751,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E41">
+        <v>3200</v>
+      </c>
       <c r="F41">
         <v>-3.357070604</v>
       </c>
@@ -1759,11 +1768,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J41">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>-1.7838433899999999</v>
       </c>
@@ -1778,6 +1784,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E42">
+        <v>3206</v>
+      </c>
       <c r="F42">
         <v>9.0600100979999993</v>
       </c>
@@ -1792,11 +1801,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J42">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>-11.721205619999999</v>
       </c>
@@ -1811,6 +1817,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E43">
+        <v>3210</v>
+      </c>
       <c r="F43">
         <v>-171.90100000000001</v>
       </c>
@@ -1825,11 +1834,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J43">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>-19.10730847</v>
       </c>
@@ -1844,6 +1850,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E44">
+        <v>3212</v>
+      </c>
       <c r="F44">
         <v>-13.68057089</v>
       </c>
@@ -1858,11 +1867,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J44">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>-29.739822060000002</v>
       </c>
@@ -1877,6 +1883,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E45">
+        <v>3218</v>
+      </c>
       <c r="F45">
         <v>-2.8178948460000002</v>
       </c>
@@ -1891,11 +1900,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J45">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8.6400759019999995</v>
       </c>
@@ -1910,6 +1916,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E46">
+        <v>3220</v>
+      </c>
       <c r="F46">
         <v>55.077278550000003</v>
       </c>
@@ -1924,11 +1933,8 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J46">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>-2.3100495799999998</v>
       </c>
@@ -1943,6 +1949,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E47">
+        <v>1001</v>
+      </c>
       <c r="F47">
         <v>30.797198300000002</v>
       </c>
@@ -1957,11 +1966,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J47">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>-7.9360801460000001</v>
       </c>
@@ -1976,6 +1982,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E48">
+        <v>1006</v>
+      </c>
       <c r="F48">
         <v>10.969588480000001</v>
       </c>
@@ -1990,11 +1999,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J48">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>-27.82950748</v>
       </c>
@@ -2009,6 +2015,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E49">
+        <v>1009</v>
+      </c>
       <c r="F49">
         <v>30.223090710000001</v>
       </c>
@@ -2023,11 +2032,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J49">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5.7077765569999999</v>
       </c>
@@ -2042,6 +2048,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E50">
+        <v>1010</v>
+      </c>
       <c r="F50">
         <v>26.931017959999998</v>
       </c>
@@ -2056,11 +2065,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J50">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>42.914064539999998</v>
       </c>
@@ -2075,6 +2081,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E51">
+        <v>1011</v>
+      </c>
       <c r="F51">
         <v>19.963634970000001</v>
       </c>
@@ -2089,11 +2098,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J51">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>28.414540899999999</v>
       </c>
@@ -2108,6 +2114,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E52">
+        <v>1012</v>
+      </c>
       <c r="F52">
         <v>18.082508950000001</v>
       </c>
@@ -2122,11 +2131,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J52">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>7.3872828860000003E-2</v>
       </c>
@@ -2141,6 +2147,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E53">
+        <v>1013</v>
+      </c>
       <c r="F53">
         <v>-5.491928057</v>
       </c>
@@ -2155,11 +2164,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J53">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.594355653</v>
       </c>
@@ -2174,6 +2180,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E54">
+        <v>1015</v>
+      </c>
       <c r="F54">
         <v>4.0835932870000002</v>
       </c>
@@ -2188,11 +2197,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J54">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>-1.38382048</v>
       </c>
@@ -2207,6 +2213,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E55">
+        <v>1016</v>
+      </c>
       <c r="F55">
         <v>28.749031970000001</v>
       </c>
@@ -2221,11 +2230,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J55">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>10.490672480000001</v>
       </c>
@@ -2240,6 +2246,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E56">
+        <v>1019</v>
+      </c>
       <c r="F56">
         <v>5.9262117779999999</v>
       </c>
@@ -2254,11 +2263,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J56">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1.926012872</v>
       </c>
@@ -2273,6 +2279,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E57">
+        <v>1021</v>
+      </c>
       <c r="F57">
         <v>15.239936569999999</v>
       </c>
@@ -2287,11 +2296,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J57">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>-16.94313747</v>
       </c>
@@ -2306,6 +2312,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E58">
+        <v>1242</v>
+      </c>
       <c r="F58">
         <v>4.1874097079999997</v>
       </c>
@@ -2320,11 +2329,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J58">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>-4.4160520529999996</v>
       </c>
@@ -2339,6 +2345,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E59">
+        <v>1243</v>
+      </c>
       <c r="F59">
         <v>3.4025563939999999</v>
       </c>
@@ -2353,11 +2362,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J59">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>-2.6876840550000001</v>
       </c>
@@ -2372,6 +2378,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E60">
+        <v>1244</v>
+      </c>
       <c r="F60">
         <v>12.01290313</v>
       </c>
@@ -2386,11 +2395,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J60">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>-15.59920024</v>
       </c>
@@ -2405,6 +2411,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E61">
+        <v>1248</v>
+      </c>
       <c r="F61">
         <v>9.1700571229999994</v>
       </c>
@@ -2419,11 +2428,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J61">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>-1.8693203629999999</v>
       </c>
@@ -2438,6 +2444,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E62">
+        <v>1249</v>
+      </c>
       <c r="F62">
         <v>-5.445923831</v>
       </c>
@@ -2452,11 +2461,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J62">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>-36.067894639999999</v>
       </c>
@@ -2471,6 +2477,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E63">
+        <v>1251</v>
+      </c>
       <c r="F63">
         <v>16.682172269999999</v>
       </c>
@@ -2485,11 +2494,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J63">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>17.432511300000002</v>
       </c>
@@ -2504,6 +2510,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E64">
+        <v>1255</v>
+      </c>
       <c r="F64">
         <v>13.059199769999999</v>
       </c>
@@ -2518,11 +2527,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J64">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>-22.02539209</v>
       </c>
@@ -2537,6 +2543,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E65">
+        <v>1276</v>
+      </c>
       <c r="F65">
         <v>-5.8874976129999999</v>
       </c>
@@ -2551,11 +2560,8 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J65">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>14.31012524</v>
       </c>
@@ -2570,6 +2576,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E66">
+        <v>1282</v>
+      </c>
       <c r="F66">
         <v>-14.20211426</v>
       </c>
@@ -2584,11 +2593,8 @@
         <f t="shared" ref="I66:I97" si="7">IF(COUNTIF(G66,"*C*"), "Computer",IF(COUNTIF(G66,"*S*"), "Stranger", "Friend"))</f>
         <v>Friend</v>
       </c>
-      <c r="J66">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2.106464688</v>
       </c>
@@ -2603,6 +2609,9 @@
         <f t="shared" ref="D67:D130" si="9">IF(COUNTIF(B67,"*C*"), "Computer",IF(COUNTIF(B67,"*S*"), "Stranger", "Friend"))</f>
         <v>Computer</v>
       </c>
+      <c r="E67">
+        <v>1286</v>
+      </c>
       <c r="F67">
         <v>41.888558629999999</v>
       </c>
@@ -2617,11 +2626,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J67">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>-8.9954237500000005</v>
       </c>
@@ -2636,6 +2642,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E68">
+        <v>1294</v>
+      </c>
       <c r="F68">
         <v>-4.0413936289999999</v>
       </c>
@@ -2650,11 +2659,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J68">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>-19.041759450000001</v>
       </c>
@@ -2669,6 +2675,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E69">
+        <v>1301</v>
+      </c>
       <c r="F69">
         <v>-3.507129317</v>
       </c>
@@ -2683,11 +2692,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J69">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>9.2539366150000006</v>
       </c>
@@ -2702,6 +2708,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E70">
+        <v>1302</v>
+      </c>
       <c r="F70">
         <v>-9.5927745899999994</v>
       </c>
@@ -2716,11 +2725,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J70">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>-9.7879056779999996</v>
       </c>
@@ -2735,6 +2741,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E71">
+        <v>1303</v>
+      </c>
       <c r="F71">
         <v>14.86635785</v>
       </c>
@@ -2749,11 +2758,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J71">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>7.8481184849999996</v>
       </c>
@@ -2768,6 +2774,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E72">
+        <v>3116</v>
+      </c>
       <c r="F72">
         <v>20.852169830000001</v>
       </c>
@@ -2782,11 +2791,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J72">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>-20.573400580000001</v>
       </c>
@@ -2801,6 +2807,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E73">
+        <v>3122</v>
+      </c>
       <c r="F73">
         <v>29.0448968</v>
       </c>
@@ -2815,11 +2824,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J73">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>-5.7228974890000002</v>
       </c>
@@ -2834,6 +2840,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E74">
+        <v>3125</v>
+      </c>
       <c r="F74">
         <v>27.928666459999999</v>
       </c>
@@ -2848,11 +2857,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J74">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2.1955832420000001</v>
       </c>
@@ -2867,6 +2873,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E75">
+        <v>3140</v>
+      </c>
       <c r="F75">
         <v>3.6168583079999999</v>
       </c>
@@ -2881,11 +2890,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J75">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>-20.01496465</v>
       </c>
@@ -2900,6 +2906,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E76">
+        <v>3143</v>
+      </c>
       <c r="F76">
         <v>-35.221435960000001</v>
       </c>
@@ -2914,11 +2923,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J76">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>12.244420529999999</v>
       </c>
@@ -2933,6 +2939,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E77">
+        <v>3152</v>
+      </c>
       <c r="F77">
         <v>-37.027710339999999</v>
       </c>
@@ -2947,11 +2956,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J77">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>13.341883709999999</v>
       </c>
@@ -2966,6 +2972,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E78">
+        <v>3166</v>
+      </c>
       <c r="F78">
         <v>26.758765449999999</v>
       </c>
@@ -2980,11 +2989,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J78">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>19.53015207</v>
       </c>
@@ -2999,6 +3005,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E79">
+        <v>3167</v>
+      </c>
       <c r="F79">
         <v>25.81723195</v>
       </c>
@@ -3013,11 +3022,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J79">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>-2.5572244290000001</v>
       </c>
@@ -3032,6 +3038,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E80">
+        <v>3170</v>
+      </c>
       <c r="F80">
         <v>16.767252679999999</v>
       </c>
@@ -3046,11 +3055,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J80">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>-18.116458980000001</v>
       </c>
@@ -3065,6 +3071,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E81">
+        <v>3173</v>
+      </c>
       <c r="F81">
         <v>28.212007369999998</v>
       </c>
@@ -3079,11 +3088,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J81">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>25.235741180000002</v>
       </c>
@@ -3098,6 +3104,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E82">
+        <v>3176</v>
+      </c>
       <c r="F82">
         <v>-29.853340809999999</v>
       </c>
@@ -3112,11 +3121,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J82">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>-21.666295080000001</v>
       </c>
@@ -3131,6 +3137,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E83">
+        <v>3189</v>
+      </c>
       <c r="F83">
         <v>-7.4203559339999998</v>
       </c>
@@ -3145,11 +3154,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J83">
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>19.658001540000001</v>
       </c>
@@ -3164,6 +3170,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E84">
+        <v>3190</v>
+      </c>
       <c r="F84">
         <v>5.2238110720000002</v>
       </c>
@@ -3178,11 +3187,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J84">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>33.069567309999996</v>
       </c>
@@ -3197,6 +3203,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E85">
+        <v>3199</v>
+      </c>
       <c r="F85">
         <v>12.94739555</v>
       </c>
@@ -3211,11 +3220,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J85">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>-3.357070604</v>
       </c>
@@ -3230,6 +3236,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E86">
+        <v>3200</v>
+      </c>
       <c r="F86">
         <v>19.153644610000001</v>
       </c>
@@ -3244,11 +3253,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J86">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>9.0600100979999993</v>
       </c>
@@ -3263,6 +3269,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E87">
+        <v>3206</v>
+      </c>
       <c r="F87">
         <v>15.37326062</v>
       </c>
@@ -3277,11 +3286,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J87">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>-171.90100000000001</v>
       </c>
@@ -3296,6 +3302,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E88">
+        <v>3210</v>
+      </c>
       <c r="F88">
         <v>-21.224681449999999</v>
       </c>
@@ -3310,11 +3319,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J88">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>-13.68057089</v>
       </c>
@@ -3329,6 +3335,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E89">
+        <v>3212</v>
+      </c>
       <c r="F89">
         <v>-0.4240711184</v>
       </c>
@@ -3343,11 +3352,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J89">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>-2.8178948460000002</v>
       </c>
@@ -3362,6 +3368,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E90">
+        <v>3218</v>
+      </c>
       <c r="F90">
         <v>30.96893729</v>
       </c>
@@ -3376,11 +3385,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J90">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>55.077278550000003</v>
       </c>
@@ -3395,6 +3401,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E91">
+        <v>3220</v>
+      </c>
       <c r="F91">
         <v>26.890057179999999</v>
       </c>
@@ -3409,11 +3418,8 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J91">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>-8.4189838469999998</v>
       </c>
@@ -3428,6 +3434,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E92">
+        <v>1001</v>
+      </c>
       <c r="F92">
         <v>-9.5491721340000009</v>
       </c>
@@ -3442,11 +3451,8 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J92">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>-10.20042486</v>
       </c>
@@ -3461,6 +3467,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E93">
+        <v>1006</v>
+      </c>
       <c r="F93">
         <v>0.59001500070000001</v>
       </c>
@@ -3475,11 +3484,8 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J93">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>-41.140789320000003</v>
       </c>
@@ -3494,6 +3500,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E94">
+        <v>1009</v>
+      </c>
       <c r="F94">
         <v>-8.5437755899999992</v>
       </c>
@@ -3508,11 +3517,8 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J94">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>-51.656007619999997</v>
       </c>
@@ -3527,6 +3533,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E95">
+        <v>1010</v>
+      </c>
       <c r="F95">
         <v>-10.05378576</v>
       </c>
@@ -3541,11 +3550,8 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J95">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>-5.8455043580000003</v>
       </c>
@@ -3560,6 +3566,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E96">
+        <v>1011</v>
+      </c>
       <c r="F96">
         <v>95.296223459999993</v>
       </c>
@@ -3574,11 +3583,8 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J96">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5.1957981530000001</v>
       </c>
@@ -3593,6 +3599,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E97">
+        <v>1012</v>
+      </c>
       <c r="F97">
         <v>3.082852715</v>
       </c>
@@ -3607,11 +3616,8 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J97">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>-27.9506364</v>
       </c>
@@ -3626,6 +3632,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E98">
+        <v>1013</v>
+      </c>
       <c r="F98">
         <v>-4.7924190109999998</v>
       </c>
@@ -3640,11 +3649,8 @@
         <f t="shared" ref="I98:I129" si="12">IF(COUNTIF(G98,"*C*"), "Computer",IF(COUNTIF(G98,"*S*"), "Stranger", "Friend"))</f>
         <v>Stranger</v>
       </c>
-      <c r="J98">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>-23.717055649999999</v>
       </c>
@@ -3659,6 +3665,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E99">
+        <v>1015</v>
+      </c>
       <c r="F99">
         <v>-14.33123256</v>
       </c>
@@ -3673,11 +3682,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J99">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>-16.519664200000001</v>
       </c>
@@ -3692,6 +3698,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E100">
+        <v>1016</v>
+      </c>
       <c r="F100">
         <v>-0.97587655259999995</v>
       </c>
@@ -3706,11 +3715,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J100">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1.426627192</v>
       </c>
@@ -3725,6 +3731,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E101">
+        <v>1019</v>
+      </c>
       <c r="F101">
         <v>-2.1179768179999998</v>
       </c>
@@ -3739,11 +3748,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J101">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>-56.88139236</v>
       </c>
@@ -3758,6 +3764,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E102">
+        <v>1021</v>
+      </c>
       <c r="F102">
         <v>8.9510830650000006</v>
       </c>
@@ -3772,11 +3781,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J102">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>-9.8042678970000008</v>
       </c>
@@ -3791,6 +3797,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E103">
+        <v>1242</v>
+      </c>
       <c r="F103">
         <v>13.993545109999999</v>
       </c>
@@ -3805,11 +3814,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J103">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>-9.4090915039999992</v>
       </c>
@@ -3824,6 +3830,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E104">
+        <v>1243</v>
+      </c>
       <c r="F104">
         <v>-18.26724939</v>
       </c>
@@ -3838,11 +3847,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J104">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>8.1271987039999996</v>
       </c>
@@ -3857,6 +3863,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E105">
+        <v>1244</v>
+      </c>
       <c r="F105">
         <v>13.98303647</v>
       </c>
@@ -3871,11 +3880,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J105">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>17.794130509999999</v>
       </c>
@@ -3890,6 +3896,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E106">
+        <v>1248</v>
+      </c>
       <c r="F106">
         <v>-10.44681585</v>
       </c>
@@ -3904,11 +3913,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J106">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>-25.091789590000001</v>
       </c>
@@ -3923,6 +3929,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E107">
+        <v>1249</v>
+      </c>
       <c r="F107">
         <v>29.39484414</v>
       </c>
@@ -3937,11 +3946,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J107">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>-5.2246203979999999</v>
       </c>
@@ -3956,6 +3962,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E108">
+        <v>1251</v>
+      </c>
       <c r="F108">
         <v>1.331040362</v>
       </c>
@@ -3970,11 +3979,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J108">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>18.962869139999999</v>
       </c>
@@ -3989,6 +3995,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E109">
+        <v>1255</v>
+      </c>
       <c r="F109">
         <v>18.765463440000001</v>
       </c>
@@ -4003,11 +4012,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J109">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>6.4441103750000002</v>
       </c>
@@ -4022,6 +4028,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E110">
+        <v>1276</v>
+      </c>
       <c r="F110">
         <v>-6.9228370740000003</v>
       </c>
@@ -4036,11 +4045,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J110">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>-26.111609219999998</v>
       </c>
@@ -4055,6 +4061,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E111">
+        <v>1282</v>
+      </c>
       <c r="F111">
         <v>6.5213712680000002</v>
       </c>
@@ -4069,11 +4078,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J111">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>-18.516316110000002</v>
       </c>
@@ -4088,6 +4094,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E112">
+        <v>1286</v>
+      </c>
       <c r="F112">
         <v>-2.641640642</v>
       </c>
@@ -4102,11 +4111,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J112">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>-26.025118129999999</v>
       </c>
@@ -4121,6 +4127,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E113">
+        <v>1294</v>
+      </c>
       <c r="F113">
         <v>-2.8639304659999998</v>
       </c>
@@ -4135,11 +4144,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J113">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>-19.633503480000002</v>
       </c>
@@ -4154,6 +4160,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E114">
+        <v>1301</v>
+      </c>
       <c r="F114">
         <v>-21.3811626</v>
       </c>
@@ -4168,11 +4177,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J114">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>-18.44800695</v>
       </c>
@@ -4187,6 +4193,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E115">
+        <v>1302</v>
+      </c>
       <c r="F115">
         <v>-4.3442247470000002</v>
       </c>
@@ -4201,11 +4210,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J115">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>-29.244383890000002</v>
       </c>
@@ -4220,6 +4226,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E116">
+        <v>1303</v>
+      </c>
       <c r="F116">
         <v>-39.60324473</v>
       </c>
@@ -4234,11 +4243,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J116">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>7.8532767479999999</v>
       </c>
@@ -4253,6 +4259,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E117">
+        <v>3116</v>
+      </c>
       <c r="F117">
         <v>26.771322219999998</v>
       </c>
@@ -4267,11 +4276,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J117">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>29.480430259999999</v>
       </c>
@@ -4286,6 +4292,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E118">
+        <v>3122</v>
+      </c>
       <c r="F118">
         <v>-20.663956120000002</v>
       </c>
@@ -4300,11 +4309,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J118">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>-1.1499636470000001</v>
       </c>
@@ -4319,6 +4325,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E119">
+        <v>3125</v>
+      </c>
       <c r="F119">
         <v>35.747789400000002</v>
       </c>
@@ -4333,11 +4342,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J119">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>-7.7339287280000004</v>
       </c>
@@ -4352,6 +4358,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E120">
+        <v>3140</v>
+      </c>
       <c r="F120">
         <v>-0.1907722822</v>
       </c>
@@ -4366,11 +4375,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J120">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>-27.847868139999999</v>
       </c>
@@ -4385,6 +4391,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E121">
+        <v>3143</v>
+      </c>
       <c r="F121">
         <v>-3.7004588329999999</v>
       </c>
@@ -4399,11 +4408,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J121">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>-26.545417879999999</v>
       </c>
@@ -4418,6 +4424,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E122">
+        <v>3152</v>
+      </c>
       <c r="F122">
         <v>-44.267333809999997</v>
       </c>
@@ -4432,11 +4441,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J122">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>-14.158927630000001</v>
       </c>
@@ -4451,6 +4457,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E123">
+        <v>3166</v>
+      </c>
       <c r="F123">
         <v>5.8883788189999997</v>
       </c>
@@ -4465,11 +4474,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J123">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>-19.47068003</v>
       </c>
@@ -4484,6 +4490,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E124">
+        <v>3167</v>
+      </c>
       <c r="F124">
         <v>16.305001489999999</v>
       </c>
@@ -4498,11 +4507,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J124">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>-15.974005249999999</v>
       </c>
@@ -4517,6 +4523,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E125">
+        <v>3170</v>
+      </c>
       <c r="F125">
         <v>-16.257500239999999</v>
       </c>
@@ -4531,11 +4540,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J125">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>-11.349585490000001</v>
       </c>
@@ -4550,6 +4556,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E126">
+        <v>3173</v>
+      </c>
       <c r="F126">
         <v>-16.946203529999998</v>
       </c>
@@ -4564,11 +4573,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J126">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>-26.960368859999999</v>
       </c>
@@ -4583,6 +4589,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E127">
+        <v>3176</v>
+      </c>
       <c r="F127">
         <v>-29.864262969999999</v>
       </c>
@@ -4597,11 +4606,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J127">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>-22.882411149999999</v>
       </c>
@@ -4616,6 +4622,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E128">
+        <v>3189</v>
+      </c>
       <c r="F128">
         <v>-3.9374506139999998</v>
       </c>
@@ -4630,11 +4639,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J128">
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>-21.607462600000002</v>
       </c>
@@ -4649,6 +4655,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E129">
+        <v>3190</v>
+      </c>
       <c r="F129">
         <v>24.8869094</v>
       </c>
@@ -4663,11 +4672,8 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J129">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>-16.160507190000001</v>
       </c>
@@ -4682,6 +4688,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E130">
+        <v>3199</v>
+      </c>
       <c r="F130">
         <v>-6.7199712700000003</v>
       </c>
@@ -4696,11 +4705,8 @@
         <f t="shared" ref="I130:I136" si="13">IF(COUNTIF(G130,"*C*"), "Computer",IF(COUNTIF(G130,"*S*"), "Stranger", "Friend"))</f>
         <v>Stranger</v>
       </c>
-      <c r="J130">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>-12.011380389999999</v>
       </c>
@@ -4715,6 +4721,9 @@
         <f t="shared" ref="D131:D194" si="15">IF(COUNTIF(B131,"*C*"), "Computer",IF(COUNTIF(B131,"*S*"), "Stranger", "Friend"))</f>
         <v>Friend</v>
       </c>
+      <c r="E131">
+        <v>3200</v>
+      </c>
       <c r="F131">
         <v>15.30979202</v>
       </c>
@@ -4729,11 +4738,8 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J131">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>-20.601580139999999</v>
       </c>
@@ -4748,6 +4754,9 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
+      <c r="E132">
+        <v>3206</v>
+      </c>
       <c r="F132">
         <v>8.912277821</v>
       </c>
@@ -4762,11 +4771,8 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J132">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>-58.206253340000004</v>
       </c>
@@ -4781,6 +4787,9 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
+      <c r="E133">
+        <v>3210</v>
+      </c>
       <c r="F133">
         <v>-15.620528419999999</v>
       </c>
@@ -4795,11 +4804,8 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J133">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>-13.717128020000001</v>
       </c>
@@ -4814,6 +4820,9 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
+      <c r="E134">
+        <v>3212</v>
+      </c>
       <c r="F134">
         <v>-7.8767177840000002</v>
       </c>
@@ -4828,11 +4837,8 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J134">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>-7.2654231600000001</v>
       </c>
@@ -4847,6 +4853,9 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
+      <c r="E135">
+        <v>3218</v>
+      </c>
       <c r="F135">
         <v>-14.86560991</v>
       </c>
@@ -4861,11 +4870,8 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J135">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>6.1702722449999996</v>
       </c>
@@ -4880,6 +4886,9 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
+      <c r="E136">
+        <v>3220</v>
+      </c>
       <c r="F136">
         <v>21.684531320000001</v>
       </c>
@@ -4894,11 +4903,8 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J136">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>30.797198300000002</v>
       </c>
@@ -4913,11 +4919,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J137">
+      <c r="E137">
         <v>1001</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>10.969588480000001</v>
       </c>
@@ -4932,11 +4938,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J138">
+      <c r="E138">
         <v>1006</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>30.223090710000001</v>
       </c>
@@ -4951,11 +4957,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J139">
+      <c r="E139">
         <v>1009</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>26.931017959999998</v>
       </c>
@@ -4970,11 +4976,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J140">
+      <c r="E140">
         <v>1010</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>19.963634970000001</v>
       </c>
@@ -4989,11 +4995,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J141">
+      <c r="E141">
         <v>1011</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>18.082508950000001</v>
       </c>
@@ -5008,11 +5014,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J142">
+      <c r="E142">
         <v>1012</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>-5.491928057</v>
       </c>
@@ -5027,11 +5033,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J143">
+      <c r="E143">
         <v>1013</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>4.0835932870000002</v>
       </c>
@@ -5046,11 +5052,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J144">
+      <c r="E144">
         <v>1015</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>28.749031970000001</v>
       </c>
@@ -5065,11 +5071,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J145">
+      <c r="E145">
         <v>1016</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>5.9262117779999999</v>
       </c>
@@ -5084,11 +5090,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J146">
+      <c r="E146">
         <v>1019</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>15.239936569999999</v>
       </c>
@@ -5103,11 +5109,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J147">
+      <c r="E147">
         <v>1021</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>4.1874097079999997</v>
       </c>
@@ -5122,11 +5128,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J148">
+      <c r="E148">
         <v>1242</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>3.4025563939999999</v>
       </c>
@@ -5141,11 +5147,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J149">
+      <c r="E149">
         <v>1243</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>12.01290313</v>
       </c>
@@ -5160,11 +5166,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J150">
+      <c r="E150">
         <v>1244</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>9.1700571229999994</v>
       </c>
@@ -5179,11 +5185,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J151">
+      <c r="E151">
         <v>1248</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>-5.445923831</v>
       </c>
@@ -5198,11 +5204,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J152">
+      <c r="E152">
         <v>1249</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>16.682172269999999</v>
       </c>
@@ -5217,11 +5223,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J153">
+      <c r="E153">
         <v>1251</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>13.059199769999999</v>
       </c>
@@ -5236,11 +5242,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J154">
+      <c r="E154">
         <v>1255</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>-5.8874976129999999</v>
       </c>
@@ -5255,11 +5261,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J155">
+      <c r="E155">
         <v>1276</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>-14.20211426</v>
       </c>
@@ -5274,11 +5280,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J156">
+      <c r="E156">
         <v>1282</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>41.888558629999999</v>
       </c>
@@ -5293,11 +5299,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J157">
+      <c r="E157">
         <v>1286</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>-4.0413936289999999</v>
       </c>
@@ -5312,11 +5318,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J158">
+      <c r="E158">
         <v>1294</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>-3.507129317</v>
       </c>
@@ -5331,11 +5337,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J159">
+      <c r="E159">
         <v>1301</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>-9.5927745899999994</v>
       </c>
@@ -5350,11 +5356,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J160">
+      <c r="E160">
         <v>1302</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>14.86635785</v>
       </c>
@@ -5369,11 +5375,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J161">
+      <c r="E161">
         <v>1303</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>20.852169830000001</v>
       </c>
@@ -5388,11 +5394,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J162">
+      <c r="E162">
         <v>3116</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>29.0448968</v>
       </c>
@@ -5407,11 +5413,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J163">
+      <c r="E163">
         <v>3122</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>27.928666459999999</v>
       </c>
@@ -5426,11 +5432,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J164">
+      <c r="E164">
         <v>3125</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>3.6168583079999999</v>
       </c>
@@ -5445,11 +5451,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J165">
+      <c r="E165">
         <v>3140</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>-35.221435960000001</v>
       </c>
@@ -5464,11 +5470,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J166">
+      <c r="E166">
         <v>3143</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>-37.027710339999999</v>
       </c>
@@ -5483,11 +5489,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J167">
+      <c r="E167">
         <v>3152</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>26.758765449999999</v>
       </c>
@@ -5502,11 +5508,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J168">
+      <c r="E168">
         <v>3166</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>25.81723195</v>
       </c>
@@ -5521,11 +5527,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J169">
+      <c r="E169">
         <v>3167</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>16.767252679999999</v>
       </c>
@@ -5540,11 +5546,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J170">
+      <c r="E170">
         <v>3170</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>28.212007369999998</v>
       </c>
@@ -5559,11 +5565,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J171">
+      <c r="E171">
         <v>3173</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>-29.853340809999999</v>
       </c>
@@ -5578,11 +5584,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J172">
+      <c r="E172">
         <v>3176</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>-7.4203559339999998</v>
       </c>
@@ -5597,11 +5603,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J173">
+      <c r="E173">
         <v>3189</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>5.2238110720000002</v>
       </c>
@@ -5616,11 +5622,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J174">
+      <c r="E174">
         <v>3190</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>12.94739555</v>
       </c>
@@ -5635,11 +5641,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J175">
+      <c r="E175">
         <v>3199</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>19.153644610000001</v>
       </c>
@@ -5654,11 +5660,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J176">
+      <c r="E176">
         <v>3200</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>15.37326062</v>
       </c>
@@ -5673,11 +5679,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J177">
+      <c r="E177">
         <v>3206</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>-21.224681449999999</v>
       </c>
@@ -5692,11 +5698,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J178">
+      <c r="E178">
         <v>3210</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>-0.4240711184</v>
       </c>
@@ -5711,11 +5717,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J179">
+      <c r="E179">
         <v>3212</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>30.96893729</v>
       </c>
@@ -5730,11 +5736,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J180">
+      <c r="E180">
         <v>3218</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>26.890057179999999</v>
       </c>
@@ -5749,11 +5755,11 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J181">
+      <c r="E181">
         <v>3220</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>-32.048955450000001</v>
       </c>
@@ -5768,11 +5774,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J182">
+      <c r="E182">
         <v>1001</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>8.3066125979999992</v>
       </c>
@@ -5787,11 +5793,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J183">
+      <c r="E183">
         <v>1006</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>-24.661967220000001</v>
       </c>
@@ -5806,11 +5812,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J184">
+      <c r="E184">
         <v>1009</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>-56.077572160000003</v>
       </c>
@@ -5825,11 +5831,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J185">
+      <c r="E185">
         <v>1010</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>46.861372430000003</v>
       </c>
@@ -5844,11 +5850,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J186">
+      <c r="E186">
         <v>1011</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1.912199795</v>
       </c>
@@ -5863,11 +5869,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J187">
+      <c r="E187">
         <v>1012</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>-14.795460390000001</v>
       </c>
@@ -5882,11 +5888,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J188">
+      <c r="E188">
         <v>1013</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>-4.4408576670000004</v>
       </c>
@@ -5901,11 +5907,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J189">
+      <c r="E189">
         <v>1015</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>-18.26851336</v>
       </c>
@@ -5920,11 +5926,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J190">
+      <c r="E190">
         <v>1016</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>-5.8884003290000004</v>
       </c>
@@ -5939,11 +5945,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J191">
+      <c r="E191">
         <v>1019</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>8.6896157889999994</v>
       </c>
@@ -5958,11 +5964,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J192">
+      <c r="E192">
         <v>1021</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>-33.976498460000002</v>
       </c>
@@ -5977,11 +5983,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J193">
+      <c r="E193">
         <v>1242</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>3.2650295379999998</v>
       </c>
@@ -5996,11 +6002,11 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J194">
+      <c r="E194">
         <v>1243</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.74745855210000001</v>
       </c>
@@ -6015,11 +6021,11 @@
         <f t="shared" ref="D195:D258" si="17">IF(COUNTIF(B195,"*C*"), "Computer",IF(COUNTIF(B195,"*S*"), "Stranger", "Friend"))</f>
         <v>Stranger</v>
       </c>
-      <c r="J195">
+      <c r="E195">
         <v>1244</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>16.817403129999999</v>
       </c>
@@ -6034,11 +6040,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J196">
+      <c r="E196">
         <v>1248</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1.3299817110000001</v>
       </c>
@@ -6053,11 +6059,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J197">
+      <c r="E197">
         <v>1249</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.7354895629</v>
       </c>
@@ -6072,11 +6078,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J198">
+      <c r="E198">
         <v>1251</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>-17.327872809999999</v>
       </c>
@@ -6091,11 +6097,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J199">
+      <c r="E199">
         <v>1255</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>5.7361469610000002</v>
       </c>
@@ -6110,11 +6116,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J200">
+      <c r="E200">
         <v>1276</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>-4.2355643369999996</v>
       </c>
@@ -6129,11 +6135,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J201">
+      <c r="E201">
         <v>1282</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>-47.772572099999998</v>
       </c>
@@ -6148,11 +6154,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J202">
+      <c r="E202">
         <v>1286</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>-19.594134230000002</v>
       </c>
@@ -6167,11 +6173,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J203">
+      <c r="E203">
         <v>1294</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>-19.65802446</v>
       </c>
@@ -6186,11 +6192,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J204">
+      <c r="E204">
         <v>1301</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>-35.540019989999998</v>
       </c>
@@ -6205,11 +6211,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J205">
+      <c r="E205">
         <v>1302</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>-51.050774189999998</v>
       </c>
@@ -6224,11 +6230,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J206">
+      <c r="E206">
         <v>1303</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>-3.6981959149999999</v>
       </c>
@@ -6243,11 +6249,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J207">
+      <c r="E207">
         <v>3116</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>-20.484768809999998</v>
       </c>
@@ -6262,11 +6268,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J208">
+      <c r="E208">
         <v>3122</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>-11.340552750000001</v>
       </c>
@@ -6281,11 +6287,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J209">
+      <c r="E209">
         <v>3125</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>-6.3160562200000001</v>
       </c>
@@ -6300,11 +6306,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J210">
+      <c r="E210">
         <v>3140</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>-28.755839229999999</v>
       </c>
@@ -6319,11 +6325,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J211">
+      <c r="E211">
         <v>3143</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>-36.679230130000001</v>
       </c>
@@ -6338,11 +6344,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J212">
+      <c r="E212">
         <v>3152</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>3.2329858740000001</v>
       </c>
@@ -6357,11 +6363,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J213">
+      <c r="E213">
         <v>3166</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>-5.5666731140000003</v>
       </c>
@@ -6376,11 +6382,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J214">
+      <c r="E214">
         <v>3167</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>-18.544561009999999</v>
       </c>
@@ -6395,11 +6401,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J215">
+      <c r="E215">
         <v>3170</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>-6.3534867520000002</v>
       </c>
@@ -6414,11 +6420,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J216">
+      <c r="E216">
         <v>3173</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>-30.10383955</v>
       </c>
@@ -6433,11 +6439,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J217">
+      <c r="E217">
         <v>3176</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>-35.715042459999999</v>
       </c>
@@ -6452,11 +6458,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J218">
+      <c r="E218">
         <v>3189</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>-0.88993942349999999</v>
       </c>
@@ -6471,11 +6477,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J219">
+      <c r="E219">
         <v>3190</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>5.2308839130000004</v>
       </c>
@@ -6490,11 +6496,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J220">
+      <c r="E220">
         <v>3199</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>-1.7529855379999999</v>
       </c>
@@ -6509,11 +6515,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J221">
+      <c r="E221">
         <v>3200</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>-15.486439069999999</v>
       </c>
@@ -6528,11 +6534,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J222">
+      <c r="E222">
         <v>3206</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>-47.194424359999999</v>
       </c>
@@ -6547,11 +6553,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J223">
+      <c r="E223">
         <v>3210</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>-26.67087811</v>
       </c>
@@ -6566,11 +6572,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J224">
+      <c r="E224">
         <v>3212</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>-68.798021289999994</v>
       </c>
@@ -6585,11 +6591,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J225">
+      <c r="E225">
         <v>3218</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>11.3596328</v>
       </c>
@@ -6604,11 +6610,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J226">
+      <c r="E226">
         <v>3220</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>-9.5491721340000009</v>
       </c>
@@ -6623,11 +6629,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J227">
+      <c r="E227">
         <v>1001</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>0.59001500070000001</v>
       </c>
@@ -6642,11 +6648,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J228">
+      <c r="E228">
         <v>1006</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>-8.5437755899999992</v>
       </c>
@@ -6661,11 +6667,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J229">
+      <c r="E229">
         <v>1009</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>-10.05378576</v>
       </c>
@@ -6680,11 +6686,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J230">
+      <c r="E230">
         <v>1010</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>95.296223459999993</v>
       </c>
@@ -6699,11 +6705,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J231">
+      <c r="E231">
         <v>1011</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>3.082852715</v>
       </c>
@@ -6718,11 +6724,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J232">
+      <c r="E232">
         <v>1012</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>-4.7924190109999998</v>
       </c>
@@ -6737,11 +6743,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J233">
+      <c r="E233">
         <v>1013</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>-14.33123256</v>
       </c>
@@ -6756,11 +6762,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J234">
+      <c r="E234">
         <v>1015</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>-0.97587655259999995</v>
       </c>
@@ -6775,11 +6781,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J235">
+      <c r="E235">
         <v>1016</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>-2.1179768179999998</v>
       </c>
@@ -6794,11 +6800,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J236">
+      <c r="E236">
         <v>1019</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>8.9510830650000006</v>
       </c>
@@ -6813,11 +6819,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J237">
+      <c r="E237">
         <v>1021</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>13.993545109999999</v>
       </c>
@@ -6832,11 +6838,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J238">
+      <c r="E238">
         <v>1242</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>-18.26724939</v>
       </c>
@@ -6851,11 +6857,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J239">
+      <c r="E239">
         <v>1243</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>13.98303647</v>
       </c>
@@ -6870,11 +6876,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J240">
+      <c r="E240">
         <v>1244</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>-10.44681585</v>
       </c>
@@ -6889,11 +6895,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J241">
+      <c r="E241">
         <v>1248</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>29.39484414</v>
       </c>
@@ -6908,11 +6914,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J242">
+      <c r="E242">
         <v>1249</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1.331040362</v>
       </c>
@@ -6927,11 +6933,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J243">
+      <c r="E243">
         <v>1251</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>18.765463440000001</v>
       </c>
@@ -6946,11 +6952,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J244">
+      <c r="E244">
         <v>1255</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>-6.9228370740000003</v>
       </c>
@@ -6965,11 +6971,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J245">
+      <c r="E245">
         <v>1276</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>6.5213712680000002</v>
       </c>
@@ -6984,11 +6990,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J246">
+      <c r="E246">
         <v>1282</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>-2.641640642</v>
       </c>
@@ -7003,11 +7009,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J247">
+      <c r="E247">
         <v>1286</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>-2.8639304659999998</v>
       </c>
@@ -7022,11 +7028,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J248">
+      <c r="E248">
         <v>1294</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>-21.3811626</v>
       </c>
@@ -7041,11 +7047,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J249">
+      <c r="E249">
         <v>1301</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>-4.3442247470000002</v>
       </c>
@@ -7060,11 +7066,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J250">
+      <c r="E250">
         <v>1302</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>-39.60324473</v>
       </c>
@@ -7079,11 +7085,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J251">
+      <c r="E251">
         <v>1303</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>26.771322219999998</v>
       </c>
@@ -7098,11 +7104,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J252">
+      <c r="E252">
         <v>3116</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>-20.663956120000002</v>
       </c>
@@ -7117,11 +7123,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J253">
+      <c r="E253">
         <v>3122</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>35.747789400000002</v>
       </c>
@@ -7136,11 +7142,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J254">
+      <c r="E254">
         <v>3125</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>-0.1907722822</v>
       </c>
@@ -7155,11 +7161,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J255">
+      <c r="E255">
         <v>3140</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>-3.7004588329999999</v>
       </c>
@@ -7174,11 +7180,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J256">
+      <c r="E256">
         <v>3143</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>-44.267333809999997</v>
       </c>
@@ -7193,11 +7199,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J257">
+      <c r="E257">
         <v>3152</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>5.8883788189999997</v>
       </c>
@@ -7212,11 +7218,11 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J258">
+      <c r="E258">
         <v>3166</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>16.305001489999999</v>
       </c>
@@ -7231,11 +7237,11 @@
         <f t="shared" ref="D259:D271" si="19">IF(COUNTIF(B259,"*C*"), "Computer",IF(COUNTIF(B259,"*S*"), "Stranger", "Friend"))</f>
         <v>Stranger</v>
       </c>
-      <c r="J259">
+      <c r="E259">
         <v>3167</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>-16.257500239999999</v>
       </c>
@@ -7250,11 +7256,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J260">
+      <c r="E260">
         <v>3170</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>-16.946203529999998</v>
       </c>
@@ -7269,11 +7275,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J261">
+      <c r="E261">
         <v>3173</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>-29.864262969999999</v>
       </c>
@@ -7288,11 +7294,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J262">
+      <c r="E262">
         <v>3176</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>-3.9374506139999998</v>
       </c>
@@ -7307,11 +7313,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J263">
+      <c r="E263">
         <v>3189</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>24.8869094</v>
       </c>
@@ -7326,11 +7332,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J264">
+      <c r="E264">
         <v>3190</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>-6.7199712700000003</v>
       </c>
@@ -7345,11 +7351,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J265">
+      <c r="E265">
         <v>3199</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>15.30979202</v>
       </c>
@@ -7364,11 +7370,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J266">
+      <c r="E266">
         <v>3200</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>8.912277821</v>
       </c>
@@ -7383,11 +7389,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J267">
+      <c r="E267">
         <v>3206</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>-15.620528419999999</v>
       </c>
@@ -7402,11 +7408,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J268">
+      <c r="E268">
         <v>3210</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>-7.8767177840000002</v>
       </c>
@@ -7421,11 +7427,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J269">
+      <c r="E269">
         <v>3212</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>-14.86560991</v>
       </c>
@@ -7440,11 +7446,11 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J270">
+      <c r="E270">
         <v>3218</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>21.684531320000001</v>
       </c>
@@ -7459,7 +7465,7 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J271">
+      <c r="E271">
         <v>3220</v>
       </c>
     </row>
